--- a/proposiciones_euclides.xlsx
+++ b/proposiciones_euclides.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Postudalo 12 aplicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Proposicion 12 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551365C-06A2-47DC-B855-F5DEDDF569A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA1A1B0-79A2-4585-B36D-6A3A59526366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -172,148 +185,148 @@
     <t>Proposición I.48</t>
   </si>
   <si>
-    <t>Construir un triángulo equilátero sobre un segmento rectilíneo dado.</t>
-  </si>
-  <si>
-    <t>Poner en un punto dado una recta igual a una recta dada.</t>
-  </si>
-  <si>
     <t>Dadas dos rectas desiguales, quitar de la mayor una recta igual a la menor.</t>
   </si>
   <si>
-    <t>Si dos triángulos tienen dos lados iguales y ángulo común, son congruentes.</t>
-  </si>
-  <si>
-    <t>En triángulos isósceles, los ángulos en la base son iguales.</t>
-  </si>
-  <si>
-    <t>Si en un triángulo dos ángulos son iguales, los lados opuestos son iguales.</t>
-  </si>
-  <si>
-    <t>No se pueden construir dos triángulos distintos con los mismos extremos.</t>
-  </si>
-  <si>
-    <t>Si tres lados de un triángulo son iguales a tres lados de otro, son congruentes.</t>
-  </si>
-  <si>
-    <t>Bisecar un ángulo rectilíneo dado.</t>
-  </si>
-  <si>
     <t>Bisecar un segmento finito dado.</t>
   </si>
   <si>
-    <t>Levantar una línea perpendicular desde un punto de una recta dada.</t>
-  </si>
-  <si>
-    <t>Trazar una línea recta perpendicular a una recta infinita dada desde un punto exterior.</t>
-  </si>
-  <si>
-    <t>Si una línea recta incide sobre otra, forma ángulos iguales a dos rectos.</t>
-  </si>
-  <si>
-    <t>Si con una recta común dos rectas forman ángulos adyacentes iguales a dos rectos, están en línea recta.</t>
-  </si>
-  <si>
-    <t>Los ángulos opuestos por el vértice son iguales.</t>
-  </si>
-  <si>
-    <t>En todo triángulo, el ángulo exterior es mayor que cualquiera de los interiores opuestos.</t>
-  </si>
-  <si>
-    <t>En todo triángulo, la suma de dos ángulos cualesquiera es menor que dos rectos.</t>
-  </si>
-  <si>
-    <t>En todo triángulo, al mayor lado se opone mayor ángulo.</t>
-  </si>
-  <si>
-    <t>En todo triángulo, al mayor ángulo se opone mayor lado.</t>
-  </si>
-  <si>
-    <t>En todo triángulo, la suma de dos lados es mayor que el tercero.</t>
-  </si>
-  <si>
-    <t>Si desde los extremos de un lado de un triángulo se trazan rectas al interior, su suma es menor que la de los otros dos lados pero el ángulo que forman es mayor.</t>
-  </si>
-  <si>
-    <t>Construir un triángulo con tres segmentos que cumplan la desigualdad triangular.</t>
-  </si>
-  <si>
-    <t>Construir un ángulo igual a un ángulo dado sobre una recta dada.</t>
-  </si>
-  <si>
-    <t>Si dos triángulos tienen dos lados iguales pero el ángulo comprendido desigual, el tercer lado será mayor donde el ángulo es mayor.</t>
-  </si>
-  <si>
-    <t>Si dos triángulos tienen dos lados iguales pero el tercer lado desigual, el ángulo opuesto al mayor lado es mayor.</t>
-  </si>
-  <si>
-    <t>Criterios de congruencia ALA y AAL.</t>
-  </si>
-  <si>
-    <t>Si una recta al cortar dos otras forma ángulos alternos iguales, las rectas son paralelas.</t>
-  </si>
-  <si>
-    <t>Rectas paralelas al cortar una transversal forman ángulos correspondientes iguales o conjugados suplementarios.</t>
-  </si>
-  <si>
-    <t>Una recta que corta a dos paralelas forma ángulos alternos iguales y correspondientes iguales.</t>
-  </si>
-  <si>
-    <t>Las paralelas a una misma recta son paralelas entre sí.</t>
-  </si>
-  <si>
-    <t>Trazar una paralela a una recta por un punto exterior.</t>
-  </si>
-  <si>
-    <t>La suma de los ángulos internos de un triángulo es dos rectos, y el externo es igual a la suma de los opuestos internos.</t>
-  </si>
-  <si>
-    <t>Rectas que unen extremos de segmentos iguales y paralelos son iguales y paralelas.</t>
-  </si>
-  <si>
-    <t>En paralelogramos, los lados y ángulos opuestos son iguales, y la diagonal lo divide en partes iguales.</t>
-  </si>
-  <si>
-    <t>Paralelogramos sobre la misma base y entre las mismas paralelas tienen igual área.</t>
-  </si>
-  <si>
-    <t>Paralelogramos sobre bases iguales y entre las mismas paralelas son iguales en área.</t>
-  </si>
-  <si>
-    <t>Triángulos sobre la misma base y entre las mismas paralelas tienen igual área.</t>
-  </si>
-  <si>
-    <t>Triángulos sobre bases iguales y entre las mismas paralelas son iguales en área.</t>
-  </si>
-  <si>
-    <t>Triángulos iguales sobre la misma base y en el mismo lado están entre las mismas paralelas.</t>
-  </si>
-  <si>
-    <t>Triángulos iguales sobre bases iguales y en el mismo lado están entre las mismas paralelas.</t>
-  </si>
-  <si>
-    <t>Si un paralelogramo y un triángulo comparten base y están entre paralelas, el paralelogramo es doble del triángulo.</t>
-  </si>
-  <si>
-    <t>Construir un paralelogramo igual a un triángulo dado con un ángulo dado.</t>
-  </si>
-  <si>
-    <t>En un paralelogramo, los complementos de los paralelogramos alrededor de la diagonal son iguales.</t>
-  </si>
-  <si>
-    <t>Construir sobre una recta dada un paralelogramo igual a un triángulo dado con un ángulo dado.</t>
-  </si>
-  <si>
-    <t>Construir un paralelogramo igual a una figura rectilínea dada con un ángulo dado.</t>
-  </si>
-  <si>
-    <t>Construir un cuadrado sobre una recta dada.</t>
-  </si>
-  <si>
-    <t>Teorema de Pitágoras: En triángulos rectángulos, el cuadrado de la hipotenusa es igual a la suma de los cuadrados de los catetos.</t>
-  </si>
-  <si>
-    <t>Recíproco del teorema de Pitágoras: Si el cuadrado de un lado es igual a la suma de los cuadrados de los otros dos, el triángulo es rectángulo.</t>
+    <t>Construir un triángulo equilátero sobre un segmento rectilíneo dado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Poner en un punto dado una recta igual a una recta dada.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En triángulos isósceles, los ángulos en la base son iguales.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si en un triángulo dos ángulos son iguales, los lados opuestos son iguales.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>No se pueden construir dos triángulos distintos con los mismos extremos.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Bisecar un ángulo rectilíneo dado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Levantar una línea perpendicular desde un punto de una recta dada.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si una línea recta incide sobre otra, forma ángulos iguales a dos rectos.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si con una recta común dos rectas forman ángulos adyacentes iguales a dos rectos, están en línea recta.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En todo triángulo, la suma de dos ángulos cualesquiera es menor que dos rectos.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En todo triángulo, al mayor lado se opone mayor ángulo.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En todo triángulo, al mayor ángulo se opone mayor lado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En todo triángulo, la suma de dos lados es mayor que el tercero.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si desde los extremos de un lado de un triángulo se trazan rectas al interior, su suma es menor que la de los otros dos lados pero el ángulo que forman es mayor.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir un triángulo con tres segmentos que cumplan la desigualdad triangular.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir un ángulo igual a un ángulo dado sobre una recta dada.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si dos triángulos tienen dos lados iguales pero el ángulo comprendido desigual, el tercer lado será mayor donde el ángulo es mayor.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si dos triángulos tienen dos lados iguales pero el tercer lado desigual, el ángulo opuesto al mayor lado es mayor.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Criterios de congruencia ALA y AAL.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si una recta al cortar dos otras forma ángulos alternos iguales, las rectas son paralelas.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Rectas paralelas al cortar una transversal forman ángulos correspondientes iguales o conjugados suplementarios.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Una recta que corta a dos paralelas forma ángulos alternos iguales y correspondientes iguales.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Las paralelas a una misma recta son paralelas entre sí.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Trazar una paralela a una recta por un punto exterior.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>La suma de los ángulos internos de un triángulo es dos rectos, y el externo es igual a la suma de los opuestos internos.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Rectas que unen extremos de segmentos iguales y paralelos son iguales y paralelas.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En paralelogramos, los lados y ángulos opuestos son iguales, y la diagonal lo divide en partes iguales.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Paralelogramos sobre la misma base y entre las mismas paralelas tienen igual área.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Paralelogramos sobre bases iguales y entre las mismas paralelas son iguales en área.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Triángulos sobre la misma base y entre las mismas paralelas tienen igual área.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Triángulos sobre bases iguales y entre las mismas paralelas son iguales en área.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Triángulos iguales sobre la misma base y en el mismo lado están entre las mismas paralelas.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Triángulos iguales sobre bases iguales y en el mismo lado están entre las mismas paralelas.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Si un paralelogramo y un triángulo comparten base y están entre paralelas, el paralelogramo es doble del triángulo.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir un paralelogramo igual a un triángulo dado con un ángulo dado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>En un paralelogramo, los complementos de los paralelogramos alrededor de la diagonal son iguales.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir sobre una recta dada un paralelogramo igual a un triángulo dado con un ángulo dado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir un paralelogramo igual a una figura rectilínea dada con un ángulo dado.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Construir un cuadrado sobre una recta dada.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Teorema de Pitágoras: En triángulos rectángulos, el cuadrado de la hipotenusa es igual a la suma de los cuadrados de los catetos.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Recíproco del teorema de Pitágoras: Si el cuadrado de un lado es igual a la suma de los cuadrados de los otros dos, el triángulo es rectángulo.TODO: Corregir</t>
+  </si>
+  <si>
+    <t>Para cualquier triángulo, cuando un lado se prolonga, el ángulo externo es mayor que los ángulos internos opuestos.</t>
+  </si>
+  <si>
+    <t>Si dos triángulos tienen dos lados del uno iguales a dos lados del otro, y tienen iguales los ángulos comprendidos por las rectas iguales, tendrán también las respectivas bases iguales, y un triángulo será igual al otro, y los ángulos restantes, a saber: los subtendidos por lados iguales, serán también iguales respectivamente.</t>
+  </si>
+  <si>
+    <t>Si dos líneas rectas se cortan una a la otra, entonces los ángulos verticalmente opuestos son iguales entre sí.</t>
+  </si>
+  <si>
+    <t>Si dos triángulos tienen dos lados del uno iguales respectivamente a dos lados del otro y tienen también iguales sus bases respectivas, también tendrán iguales los ángulos comprendidos entre las rectas.</t>
+  </si>
+  <si>
+    <t>Trazar una línea recta perpendicular a una recta infinita dada desde un punto que no está en ella.</t>
   </si>
 </sst>
 </file>
@@ -372,10 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,39 +721,39 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -745,7 +761,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -753,336 +769,336 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>61</v>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>62</v>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>71</v>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>72</v>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>74</v>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>75</v>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>77</v>
+      <c r="B29" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>78</v>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>79</v>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>80</v>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>81</v>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>82</v>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>83</v>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>85</v>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>86</v>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>87</v>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>88</v>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>89</v>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>90</v>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>91</v>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>92</v>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>93</v>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>95</v>
+      <c r="B47" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
+      <c r="B49" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
